--- a/example_data/nc_merge_report_full.xlsx
+++ b/example_data/nc_merge_report_full.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:AP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,7 +370,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>clade</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>qc.overallScore</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>qc.overallStatus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>totalGaps</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>totalInsertions</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>totalMissing</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>totalMutations</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>totalNonACGTNs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>totalPcrPrimerChanges</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>substitutions</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>deletions</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>insertions</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>nonACGTNs</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>pcrPrimerChanges</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>aaSubstitutions.y</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>totalAminoacidSubstitutions</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>aaDeletions</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>totalAminoacidDeletions</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>alignmentEnd</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>alignmentScore</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>alignmentStart</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>qc.missingData.missingDataThreshold</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>qc.missingData.score</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>qc.missingData.status</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>qc.missingData.totalMissing</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>qc.mixedSites.mixedSitesThreshold</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>qc.mixedSites.score</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>qc.mixedSites.status</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>qc.mixedSites.totalMixedSites</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>qc.privateMutations.cutoff</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>qc.privateMutations.excess</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>qc.privateMutations.score</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>qc.privateMutations.status</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>qc.privateMutations.total</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>qc.snpClusters.clusteredSNPs</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>qc.snpClusters.score</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>qc.snpClusters.status</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>qc.snpClusters.totalSNPs</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>errors</t>
         </is>
       </c>
     </row>
@@ -399,8 +594,135 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>72.93345679012346</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1107</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>G174T,C241T,T550C,C1059T,C2453T,C3037T,G4510T,G5230T,A10323G,C14408T,G16377T,C16887T,C17999T,C18877T,C19011T,C20148T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,C24130T,T25139C,C25904T,C26456T,C28253T,A28254C,C28887T</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>510-525,686-701,11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1-39,2585-2833,21162-21592,22339-22358,23072-23129,25361-25611,29839-29904</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:G82E,ORF1a:T265I,ORF1a:L730F,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF1b:T1511I,ORF3a:S171L,ORF8:I121L,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S3">
+        <v>19</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>ORF1a:H83-,ORF1a:V84-,ORF1a:M85-,ORF1a:V86-,ORF1a:E87-,ORF1a:K141-,ORF1a:S142-,ORF1a:F143-,ORF1a:D144-,ORF1a:L145-,ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <v>29902</v>
+      </c>
+      <c r="W3">
+        <v>89429</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>3000</v>
+      </c>
+      <c r="Z3">
+        <v>29.88888888888889</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB3">
+        <v>1107</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>15</v>
+      </c>
+      <c r="AH3">
+        <v>12</v>
+      </c>
+      <c r="AI3">
+        <v>80</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK3">
+        <v>17</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -416,8 +738,135 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>14.57827160493827</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1266</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,G5230T,A10323G,C14408T,T19911A,G21641T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C26985T,C28253T,C28718T</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1-39,8657-8675,9859-10085,21163-21593,22359-22523,23114-23129,25115-25222,28743-28994,29854-29871</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Charité_N_F:C28718T,USCDC_N3_P:C28718T</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>E:P71L,M:H155Y,N:R149C,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:A27S,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>29902</v>
+      </c>
+      <c r="W4">
+        <v>89555</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>3000</v>
+      </c>
+      <c r="Z4">
+        <v>35.77777777777778</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB4">
+        <v>1266</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>15</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -433,8 +882,130 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>24.45049382716049</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1521</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C241T,C1059T,A2692T,C3037T,G5230T,A10323G,C14408T,C21614T,A21801C,A22206G,T22287A,G22289A,G22813T,G23012A,A23063T,A23403G,G25563T,T25938C,C28253T</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7059-7062</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1-39,2585-2598,2824-2833,8656-8894,9853-10085,21163-21608,22290-22524,28708-28994,29845-29871</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:K1655N,ORF1a:G2265D,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,S:L18F,S:D80A,S:D215G,S:L242H,S:A243T,S:K417N,S:E484K,S:N501Y,S:D614G</t>
         </is>
+      </c>
+      <c r="S5">
+        <v>15</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>ORF1a:Y2266-</t>
+        </is>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>29902</v>
+      </c>
+      <c r="W5">
+        <v>89620</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>3000</v>
+      </c>
+      <c r="Z5">
+        <v>45.22222222222222</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB5">
+        <v>1521</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>15</v>
+      </c>
+      <c r="AH5">
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK5">
+        <v>8</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -450,8 +1021,130 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>41.07456790123457</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1944</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,G4706A,G5230T,A8658G,A10323G,C14408T,T19911A,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,G25784T,C25904T,T25938C,C26456T,C28253T</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1-39,2098-2203,3848-3996,4028-4032,4041-4047,4056-4060,4609-4657,6861-6868,9860-10084,21163-21594,22334-22524,23114-23129,28459-28999,29687-29871</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:D1481N,ORF1a:K1655N,ORF1a:K2798R,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:W131L,ORF3a:S171L,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>29902</v>
+      </c>
+      <c r="W6">
+        <v>89551</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>3000</v>
+      </c>
+      <c r="Z6">
+        <v>60.88888888888889</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB6">
+        <v>1944</v>
+      </c>
+      <c r="AC6">
+        <v>10</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>15</v>
+      </c>
+      <c r="AH6">
+        <v>3</v>
+      </c>
+      <c r="AI6">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK6">
+        <v>8</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -467,8 +1160,135 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>53.22271604938272</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1644</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,G2579T,A2692T,C3037T,G5230T,A6866T,A10323G,C11195T,C12357T,C12789T,C14408T,G20208T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C27476T,G28086T,C28253T,C28887T,G29254A,C29421T</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1-39,3701-3704,3715-3719,3738-3784,8656-8704,9851-10090,20064-20198,21163-21604,22339-22524,23114-23129,25113-25300,28699-28701,28721-28826,28963-28968,28978-28983,28988-28991,29687-29871</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>HKU_N_R:G29254A,ChinaCDC_N_F:C28887T,Pasteur_IP2_R:C12789T</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,N:P383L,ORF1a:T265I,ORF1a:E772*,ORF1a:K1655N,ORF1a:N2201Y,ORF1a:K3353R,ORF1a:L3644F,ORF1a:T4031I,ORF1a:T4175I,ORF1b:P314L,ORF1b:Q2247H,ORF3a:Q57H,ORF3a:S171L,ORF7a:T28I,ORF8:A65S,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S7">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>29902</v>
+      </c>
+      <c r="W7">
+        <v>89527</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>3000</v>
+      </c>
+      <c r="Z7">
+        <v>49.77777777777778</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB7">
+        <v>1644</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>15</v>
+      </c>
+      <c r="AH7">
+        <v>8</v>
+      </c>
+      <c r="AI7">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK7">
+        <v>13</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -484,8 +1304,130 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>293.7234705075446</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4871</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>G174T,C241T,T550C,C1059T,G2162A,C3037T,G3539T,C4338A,G5230T,C5832T,A10323G,C14408T,G16402T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,A25590T,C26456T,C28253T</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>11306-11315,22287-22296</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1-39,2172-2834,4392-4672,5953-5986,6861-6868,8656-8894,9856-10069,10758-11306,13979-14213,19603-19881,21162-21665,22339-22524,23114-23129,23836-24085,25115-25292,25661-25911,26908-27147,28459-28999,29687-29869</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:E633K,ORF1a:A1092S,ORF1a:S1358Y,ORF1a:K1655N,ORF1a:S1856F,ORF1a:K3353R,ORF1b:P314L,ORF1b:D979Y,ORF3a:Q57H,ORF3a:K66N,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>29902</v>
+      </c>
+      <c r="W8">
+        <v>89551</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>3000</v>
+      </c>
+      <c r="Z8">
+        <v>169.2962962962963</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB8">
+        <v>4871</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>15</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK8">
+        <v>9</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -501,8 +1443,135 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>440.9288888888889</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5196</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>G91T,G174T,C241T,G336T,C1059T,C3037T,G5230T,G5556T,G5968T,G6362T,C6665G,G7213T,G7223T,A11898G,C14408T,T16046G,G17173T,A21801C,A22206G,G22992A,A23403G,C23664T,G23873T,C24422G,G25563T,C25904T,C28253T</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>22287-22296</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1-39,1956-2189,2585-2835,3839-4324,4668-4672,4685-4693,4908-4947,6256-6283,6443-6474,6861-7058,8656-8894,9859-10084,11066-11315,12250-12424,13383-13607,16506-16754,17757-17974,19929-20480,21163-21666,22339-22524,23114-23129,24456-24704,25115-25289,26309-26467,28756-29049,29687-29869</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>ORF1a:R24L,ORF1a:T265I,ORF1a:K1655N,ORF1a:G1764V,ORF1a:K1901N,ORF1a:A2033S,ORF1a:P2134A,ORF1a:W2316C,ORF1a:A2320S,ORF1a:Q3878R,ORF1b:P314L,ORF1b:L860R,ORF1b:A1236S,ORF3a:Q57H,ORF3a:S171L,S:D80A,S:D215G,S:L242H,S:S477N,S:D614G,S:A701V,S:A771S,S:Q954E</t>
         </is>
+      </c>
+      <c r="S9">
+        <v>23</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>29902</v>
+      </c>
+      <c r="W9">
+        <v>89570</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>3000</v>
+      </c>
+      <c r="Z9">
+        <v>181.3333333333333</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB9">
+        <v>5196</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>15</v>
+      </c>
+      <c r="AH9">
+        <v>14</v>
+      </c>
+      <c r="AI9">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK9">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>24422:5</t>
+        </is>
+      </c>
+      <c r="AM9">
+        <v>50</v>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AO9">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -513,8 +1582,140 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>220.2816049382716</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1077</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>G174T,C241T,G1857T,C2509T,C3037T,G5230T,C6781T,A10323G,C13536T,C14408T,G15452C,G17027T,G18105T,C18747T,G20164A,C21614T,A21801C,A23233G,A23403G,C23731T,G25621T,C25904T,C27294T,T28017C,G28048A,G28881A,G28882A,G28883C,G29425T,C29769T</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>11288-11297,21766-21772,21994-21997,22287-22296,26158-26161</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1-39,2584-2723,9860-10084,21163-21592,22341-22524,25350-25357,25552-25559,29854-29904</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>K:22813,R:22992,R:23012,W:23063</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Charité_RdRp_F:G15452C,ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>N:R203K,N:G204R,N:Q384H,ORF1a:S531I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF1b:G662A,ORF1b:S1187I,ORF1b:Q1546H,ORF1b:V2233I,ORF3a:V77F,ORF3a:S171L,ORF8:Y42H,ORF8:R52K,S:L18F,S:D80A,S:L242H,S:D614G</t>
         </is>
+      </c>
+      <c r="S10">
+        <v>19</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,ORF3a:V256-,S:H69-,S:V70-,S:Y144-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>29902</v>
+      </c>
+      <c r="W10">
+        <v>89479</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>3000</v>
+      </c>
+      <c r="Z10">
+        <v>28.77777777777778</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB10">
+        <v>1077</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+      <c r="AG10">
+        <v>15</v>
+      </c>
+      <c r="AH10">
+        <v>21</v>
+      </c>
+      <c r="AI10">
+        <v>140</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AK10">
+        <v>26</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -530,8 +1731,135 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>277</v>
+      </c>
+      <c r="I11">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,C4276T,G5230T,A10323G,C12171T,C14408T,C21614T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C28253T,C28310T,C28887T</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1-39,6861-6868,21425-21592,23114-23129,29854-29904</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T,USCDC_N1_P:C28310T</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>E:P71L,N:P13S,N:T205I,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1a:A3969V,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S11">
+        <v>19</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <v>29902</v>
+      </c>
+      <c r="W11">
+        <v>89551</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>3000</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB11">
+        <v>277</v>
+      </c>
+      <c r="AC11">
+        <v>10</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>15</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK11">
+        <v>6</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -547,8 +1875,140 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>714</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>7050</v>
+      </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C2227G,C3037T,G5990T,C7173A,A10323G,C13050A,C13138A,C13206A,C14408T,C14909A,C20132A,A21801C,G22992A,A23233G,A23403G,C23664T,G25563T,C28253T,G29157T</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>11211-11214,11288-11297</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1-39,1022-1251,1956-2189,2584-2835,3848-4061,4413-4657,5001-5357,5561-5570,6861-6868,6869-7086,8012-8257,8656-8894,9266-10084,10448-10675,11943-12119,13380-13607,14596-14874,15238-15489,15880-16126,17144-17388,18028-18260,19605-19903,20044-20069,21163-21593,22334-22524,23114-23129,25668-25911,26307-26468,28459-29009,29359-29501,29852-29869</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>HKU_N_F:G29157T</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>N:G295V,ORF1a:E1909*,ORF1a:S2303Y,ORF1a:K3353R,ORF1a:Y3649F,ORF1a:A4262D,ORF1a:A4314D,ORF1b:P314L,ORF1b:A481D,ORF1b:A2222D,ORF3a:Q57H,S:D80A,S:S477N,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>ORF1a:F3650-,ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-</t>
+        </is>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>29902</v>
+      </c>
+      <c r="W12">
+        <v>89581</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>3000</v>
+      </c>
+      <c r="Z12">
+        <v>250</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB12">
+        <v>7050</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>15</v>
+      </c>
+      <c r="AH12">
+        <v>12</v>
+      </c>
+      <c r="AI12">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK12">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>29157:5</t>
+        </is>
+      </c>
+      <c r="AM12">
+        <v>50</v>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AO12">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -564,8 +2024,135 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>298</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,C5100T,G5230T,A10323G,C13620T,C14408T,C19524T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C27011T,C28253T,C28887T</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1-39,6861-6868,21422-21606,23113-23129,29851-29904</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:S1612L,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S13">
+        <v>17</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>29902</v>
+      </c>
+      <c r="W13">
+        <v>89551</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>3000</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB13">
+        <v>298</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>15</v>
+      </c>
+      <c r="AH13">
+        <v>3</v>
+      </c>
+      <c r="AI13">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK13">
+        <v>8</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -581,8 +2168,135 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>1165.882524005487</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>9406</v>
+      </c>
+      <c r="I14">
+        <v>27</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>G174T,C241T,T550C,C1059T,C1267A,C1281A,C3037T,G5230T,C8354T,C12695A,G12887T,C14408T,G15168T,A21801C,A22206G,G22583T,G22813T,G23012A,A23063T,A23403G,C23664T,C25904T,C28253T,G29374T,G29557T,C29668A,C29738A</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>22287-22296</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1-39,1327-1599,1955-2346,2563-2838,3205-3474,3973-3999,4126-4672,4984-4995,5260-5570,5952-6185,6188-6192,6868-7047,8012-8271,8651-8894,9851-10225,10317-10325,10332-10369,11066-11337,11546-11870,12251-12427,13383-13607,13979-14213,16506-16568,16649-16754,17753-17976,18341-18604,18974-19586,19929-20481,21162-21592,22163-22173,22324-22549,23128,24429-24704,25115-25741,25868-25874,25876-25882,26307-26529,26908-27149,27528-27804,28459-29009,29852-29869</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Pasteur_IP2_F:C12695A</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>N:E367D,ORF1a:T265I,ORF1a:A339D,ORF1a:K1655N,ORF1a:R2697C,ORF1a:L4144I,ORF1a:E4208*,ORF1b:P314L,ORF1b:L567F,ORF3a:S171L,S:D80A,S:D215G,S:L242H,S:V341F,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S14">
+        <v>19</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>29902</v>
+      </c>
+      <c r="W14">
+        <v>89570</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>3000</v>
+      </c>
+      <c r="Z14">
+        <v>337.2592592592592</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB14">
+        <v>9406</v>
+      </c>
+      <c r="AC14">
+        <v>10</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>15</v>
+      </c>
+      <c r="AH14">
+        <v>8</v>
+      </c>
+      <c r="AI14">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK14">
+        <v>13</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -598,8 +2312,135 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>165.854938271605</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3735</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C3037T,G5230T,C7764T,G7838T,A10323G,A13522G,C14178T,C14408T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,A24035G,G25563T,C26456T,C28253T</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>11306-11315,22287-22296</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1-39,1960-2199,2580-2834,4424-4664,6861-6868,7025-7059,8656-8662,8815-8894,9850-10091,11064,11066,11172-11306,19291-19554,20003-20481,21163-21592,22330-22524,23126-23129,25275-25287,25644-25911,27528-27792,28460-28994,29852-29869</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Pasteur_IP4_R:C14178T</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:K1655N,ORF1a:S2500F,ORF1a:D2525Y,ORF1a:K3353R,ORF1b:T19A,ORF1b:P314L,ORF3a:Q57H,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V,S:K825E</t>
         </is>
+      </c>
+      <c r="S15">
+        <v>17</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>29902</v>
+      </c>
+      <c r="W15">
+        <v>89563</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>3000</v>
+      </c>
+      <c r="Z15">
+        <v>127.2222222222222</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB15">
+        <v>3735</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>15</v>
+      </c>
+      <c r="AH15">
+        <v>3</v>
+      </c>
+      <c r="AI15">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK15">
+        <v>8</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -615,8 +2456,130 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>20C</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>366.2345679012346</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4590</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>G72T,G165T,G174T,C241T,T550C,C1059T,C3037T,C7119T,C7299T,A10323G,G10638T,C14408T,C16289A,G16433T,C17999T,T19647C,G20164A,A21801C,G22992A,C23664T,C25521A,G25563T,C28253T,A29852T,G29853T</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>26158-26161</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1-39,1958-2067,2068-2074,2219-2838,4434-4657,8656-8894,9856-10084,11053-11315,11685-11870,12796-13013,13383-13607,20885-21593,22034-22067,22232-22517,22521,23087-23451,25115-25287,28460-28994,29371-29500,29854-29869</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:S2285F,ORF1a:A2345V,ORF1a:K3353R,ORF1a:G3458V,ORF1b:P314L,ORF1b:A941D,ORF1b:G989V,ORF1b:T1511I,ORF1b:V2233I,ORF3a:F43L,ORF3a:Q57H,S:D80A,S:S477N,S:A701V</t>
         </is>
+      </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>ORF3a:V256-</t>
+        </is>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>29902</v>
+      </c>
+      <c r="W16">
+        <v>89596</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>3000</v>
+      </c>
+      <c r="Z16">
+        <v>158.8888888888889</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB16">
+        <v>4590</v>
+      </c>
+      <c r="AC16">
+        <v>10</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>15</v>
+      </c>
+      <c r="AH16">
+        <v>16</v>
+      </c>
+      <c r="AI16">
+        <v>106.6666666666667</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AK16">
+        <v>21</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -627,8 +2590,135 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>1707.311234567901</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>10833</v>
+      </c>
+      <c r="I17">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>G116T,G174T,C241T,T550C,C2459A,G2468C,C3037T,G3482T,G9601T,A10323G,G12059T,G12092T,T12289C,C14408T,G15066T,C16375A,C20879A,C20956A,C21090A,A21801C,A23403G,C23664T,C24418A,C25904T,G26153T,C26456T,C28057A,C28093T</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>11306-11315,22657-22666</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1-39,1022-1338,1958-2374,2383,2561-2835,3840-4116,4407-5310,5414-5416,6206-6475,6864-7048,8655-8894,9266-9489,9829-10086,10446-10683,11066-11306,11695-11870,13383-13607,14602-14889,15179-15182,15880-16129,16496-16754,17147-17388,17754-17976,19287-20481,21137-21666,22026-22657,23126-23130,23837-24086,24446-24703,25092-25882,26903-27147,27528-27860,28459-29013,29356-29871</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:P732T,ORF1a:A735P,ORF1a:G1073*,ORF1a:L3112F,ORF1a:K3353R,ORF1a:E3932*,ORF1a:A3943S,ORF1b:P314L,ORF1b:M533I,ORF1b:P970T,ORF1b:S2471Y,ORF1b:L2497I,ORF1b:D2541E,ORF3a:S171L,ORF3a:G254V,ORF8:A55E,ORF8:S67F,S:D80A,S:Y365*,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S17">
+        <v>22</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,S:S366-,S:V367-,S:L368-</t>
+        </is>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>29902</v>
+      </c>
+      <c r="W17">
+        <v>89535</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>3000</v>
+      </c>
+      <c r="Z17">
+        <v>390.1111111111111</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB17">
+        <v>10833</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>15</v>
+      </c>
+      <c r="AH17">
+        <v>19</v>
+      </c>
+      <c r="AI17">
+        <v>126.6666666666667</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AK17">
+        <v>24</v>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>28057:5</t>
+        </is>
+      </c>
+      <c r="AM17">
+        <v>50</v>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AO17">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -639,8 +2729,130 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>826.8237174211247</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>7807</v>
+      </c>
+      <c r="I18">
+        <v>23</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>G174T,C241T,T550C,C1059T,C3037T,C4886A,G5230T,A10323G,C10349A,C10367A,C10376A,C11499A,C14408T,G17388T,C17999T,G21641T,A21801C,A22206G,A23403G,C23664T,C26456T,C28253T,A28254C</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>11306-11315,22518-22527,26158-26161</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1-39,1958-2838,3824-4668,5315-5343,5945-6474,6869-7045,7403-7639,8656-8894,9843-10134,11066-11306,12796-13013,15553-15834,17753-17974,19291-19560,19929-20481,21163-21593,22032-22173,22246-22518,23103-23129,23839-24085,24430-24704,25115-25132,25248-25909,27528-27549,27785-27793,27796-27798,28459-28512,28593-28999,29661-29871</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:P1541T,ORF1a:K1655N,ORF1a:K3353R,ORF1a:P3362T,ORF1a:R3368S,ORF1a:P3371T,ORF1a:S3745*,ORF1b:P314L,ORF1b:L1307F,ORF1b:T1511I,ORF8:I121L,S:A27S,S:D80A,S:D215G,S:R319T,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S18">
+        <v>19</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,ORF3a:V256-,S:V320-,S:Q321-,S:P322-</t>
+        </is>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <v>29902</v>
+      </c>
+      <c r="W18">
+        <v>89542</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>3000</v>
+      </c>
+      <c r="Z18">
+        <v>278.037037037037</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB18">
+        <v>7807</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>15</v>
+      </c>
+      <c r="AH18">
+        <v>11</v>
+      </c>
+      <c r="AI18">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK18">
+        <v>16</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO18">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -651,8 +2863,120 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>23.1467901234568</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1599</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C241T,C3037T,A8658G,T12503C,C14408T,A23403G,T24979C,C29721T</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1-39,2585-2636,9856-10085,21163-21592,22339-22524,23050-23127,25363-25387,25480-25486,25596-25611,28465-28994,29855-29871</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
           <t>ORF1a:K2798R,ORF1a:Y4080H,ORF1b:P314L,S:D614G</t>
         </is>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>29902</v>
+      </c>
+      <c r="W19">
+        <v>89677</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>3000</v>
+      </c>
+      <c r="Z19">
+        <v>48.11111111111111</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB19">
+        <v>1599</v>
+      </c>
+      <c r="AC19">
+        <v>10</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>15</v>
+      </c>
+      <c r="AH19">
+        <v>-3</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -663,8 +2987,125 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>248</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C241T,C3037T,C14408T,A23403G,C23896T,G28881A,G28882A,G28883C</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1-39,21432-21593,22346-22378,29854-29871</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
           <t>N:R203K,N:G204R,ORF1b:P314L,S:D614G</t>
         </is>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>29902</v>
+      </c>
+      <c r="W20">
+        <v>89677</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>3000</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB20">
+        <v>248</v>
+      </c>
+      <c r="AC20">
+        <v>10</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>15</v>
+      </c>
+      <c r="AH20">
+        <v>-4</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -675,8 +3116,120 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>13.01338820301783</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1274</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C241T,C2933T,C3037T,C4832T,A12556T,C14408T,C16111T,C16289T,A23403G,C28005T</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1-39,9859-10084,21163-21592,22431-22524,23050-23129,23517-23651,28620-28623,28740-28994,29852-29871</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>ORF1a:L890F,ORF1a:E4097D,ORF1b:P314L,ORF1b:A941V,ORF8:P38S,S:D614G</t>
         </is>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>29902</v>
+      </c>
+      <c r="W21">
+        <v>89669</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>3000</v>
+      </c>
+      <c r="Z21">
+        <v>36.07407407407408</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB21">
+        <v>1274</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>15</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK21">
+        <v>5</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO21">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -687,8 +3240,125 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>183</v>
+      </c>
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C241T,C3037T,T12503C,C14408T,C14484T,A20262G,A23403G,G25770T,C27208T,G28881A,G28882A,G28883C,G28899T,C29721T</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1-39,21449,21492-21592,29860-29904</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C;G28899T</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>N:R203K,N:G204R,N:R209I,ORF1a:Y4080H,ORF1b:P314L,ORF3a:R126S,ORF6:H3Y,S:D614G</t>
         </is>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>29902</v>
+      </c>
+      <c r="W22">
+        <v>89653</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>3000</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB22">
+        <v>183</v>
+      </c>
+      <c r="AC22">
+        <v>10</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>15</v>
+      </c>
+      <c r="AH22">
+        <v>-1</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK22">
+        <v>4</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -699,8 +3369,125 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>4.995555555555556</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>876</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C241T,G2764A,C3037T,C6402T,A6731G,T12503C,C14408T,C19089T,C21622T,C21855T,A23403G,G25770T,G28881A,G28882A,G28883C,C29721T</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1-39,6867-7043,21163-21593,22342-22524,29854-29904</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
           <t>N:R203K,N:G204R,ORF1a:P2046L,ORF1a:I2156V,ORF1a:Y4080H,ORF1b:P314L,ORF3a:R126S,S:S98F,S:D614G</t>
         </is>
+      </c>
+      <c r="S23">
+        <v>9</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>29902</v>
+      </c>
+      <c r="W23">
+        <v>89645</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>3000</v>
+      </c>
+      <c r="Z23">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB23">
+        <v>876</v>
+      </c>
+      <c r="AC23">
+        <v>10</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>15</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK23">
+        <v>6</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO23">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -711,8 +3498,120 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>15.64641975308642</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1368</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C241T,C1684T,C3037T,C6762T,T9429C,T12503C,C14408T,A23403G,G25770T,G27281T,C27889T,C29721T</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1-39,2648-2674,9853-10085,21163-21593,22330-22524,23050-23129,28645-28994,29852-29871,29903</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>ORF1a:T2166I,ORF1a:I3055T,ORF1a:Y4080H,ORF1b:P314L,ORF3a:R126S,ORF6:W27L,S:D614G</t>
         </is>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>29902</v>
+      </c>
+      <c r="W24">
+        <v>89661</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>3000</v>
+      </c>
+      <c r="Z24">
+        <v>39.55555555555556</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB24">
+        <v>1368</v>
+      </c>
+      <c r="AC24">
+        <v>10</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>15</v>
+      </c>
+      <c r="AH24">
+        <v>-1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK24">
+        <v>4</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO24">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -723,8 +3622,125 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>20A</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>246</v>
+      </c>
+      <c r="I25">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C241T,G1406A,G2164C,C3037T,C3653T,C6027T,T9379A,T9498C,C10507T,C14408T,C14571T,C16946T,A20268G,C21859T,A23403G,G28681A,C28854T,G29473T,G29474T,A29852T,G29853T</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1-39,21434-21593,29855-29904</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>USCDC_N3_F:G28681A</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>N:S194L,N:L400F,N:D401Y,ORF1a:E381K,ORF1a:E633D,ORF1a:L1130F,ORF1a:P1921L,ORF1a:V3078A,ORF1b:P314L,ORF1b:A1160V,S:D614G</t>
         </is>
+      </c>
+      <c r="S25">
+        <v>11</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>29902</v>
+      </c>
+      <c r="W25">
+        <v>89625</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>3000</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB25">
+        <v>246</v>
+      </c>
+      <c r="AC25">
+        <v>10</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>15</v>
+      </c>
+      <c r="AH25">
+        <v>9</v>
+      </c>
+      <c r="AI25">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK25">
+        <v>14</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO25">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -735,8 +3751,135 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>20B</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>4.134444444444444</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>399</v>
+      </c>
+      <c r="I26">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C241T,C2695T,C3037T,C6033T,G10981T,C14408T,C16376T,C22938T,A23403G,G27762T,C28253T,G28881A,G28882A,G28883C,G29674A</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>28896-28899</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1-39,21434-21592,23120-23124,27928-27950,29373-29500,29854-29904</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>N:R203K,N:G204R,N:A208G,ORF1a:A1923V,ORF1b:P314L,ORF1b:P970L,ORF7b:E3*,S:S459F,S:D614G</t>
         </is>
+      </c>
+      <c r="S26">
+        <v>9</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>N:R209-</t>
+        </is>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>29902</v>
+      </c>
+      <c r="W26">
+        <v>89636</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>3000</v>
+      </c>
+      <c r="Z26">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB26">
+        <v>399</v>
+      </c>
+      <c r="AC26">
+        <v>10</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>15</v>
+      </c>
+      <c r="AH26">
+        <v>3</v>
+      </c>
+      <c r="AI26">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK26">
+        <v>8</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO26">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -747,8 +3890,135 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>75.37614540466394</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>439</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C241T,C2262T,C2509T,C3037T,C4002T,G6439A,C6781T,G10097A,A10323G,C12294T,C13536T,C14408T,G17027T,C18747T,G20164A,T22963C,G22992A,A23233G,A23403G,T23629G,C23731T,G25273T,G26746T,C27294T,G28048A,C28171T,G28881A,G28882A,G28883C,G29425T</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>26158-26161</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1-32,2585-2833,21449-21593,29855-29871</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>M:W75L,N:R203K,N:G204R,N:Q384H,ORF1a:T666I,ORF1a:T1246I,ORF1a:G3278S,ORF1a:K3353R,ORF1a:T4010I,ORF1b:P314L,ORF1b:S1187I,ORF1b:V2233I,ORF8:R52K,ORF8:P93L,S:S477N,S:D614G,S:S689R,S:M1237I</t>
         </is>
+      </c>
+      <c r="S27">
+        <v>18</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>ORF3a:V256-</t>
+        </is>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>29902</v>
+      </c>
+      <c r="W27">
+        <v>89576</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>3000</v>
+      </c>
+      <c r="Z27">
+        <v>5.148148148148148</v>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB27">
+        <v>439</v>
+      </c>
+      <c r="AC27">
+        <v>10</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>15</v>
+      </c>
+      <c r="AH27">
+        <v>13</v>
+      </c>
+      <c r="AI27">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK27">
+        <v>18</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO27">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -759,8 +4029,130 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>49.09086419753087</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>882</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C241T,C2509T,C3037T,C4002T,G6439A,C6720T,C6781T,G10097A,A10323G,C13536T,C14408T,C16466T,G17027T,C18747T,G20164A,C20703T,G22992A,A23233G,A23403G,C23731T,C24404A,C26894T,G28048A,C28253T,G29425T</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>26158-26161</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1-39,2585-2833,10081-10083,21330-21333,21343-21593,23065-23129,28740-28994,29848-29871</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>N:Q384H,ORF1a:T1246I,ORF1a:T2152I,ORF1a:G3278S,ORF1a:K3353R,ORF1b:P314L,ORF1b:P1000L,ORF1b:S1187I,ORF1b:V2233I,ORF8:R52K,S:S477N,S:D614G,S:L948I</t>
         </is>
+      </c>
+      <c r="S28">
+        <v>13</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>ORF3a:V256-</t>
+        </is>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>29902</v>
+      </c>
+      <c r="W28">
+        <v>89596</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>3000</v>
+      </c>
+      <c r="Z28">
+        <v>21.55555555555556</v>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB28">
+        <v>882</v>
+      </c>
+      <c r="AC28">
+        <v>10</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>15</v>
+      </c>
+      <c r="AH28">
+        <v>10</v>
+      </c>
+      <c r="AI28">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK28">
+        <v>15</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -771,8 +4163,135 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>46.95725651577504</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>728</v>
+      </c>
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C241T,C2485T,C2507T,C2509T,C3037T,C4002T,C6781T,C7011T,A10323G,C13536T,C14408T,C15720T,G17027T,C18747T,G20164A,G22992A,A23233G,A23403G,C23731T,G28048A,G28079T,G28375A,G28881A,G28882A,G28883C,G29425T</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>26158-26161</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1-39,2584-2833,10040-10100,21374-21594,22340-22367,23050-23130,25596-25609,28936-28940,29834-29871</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>N:R203K,N:G204R,N:Q384H,ORF1a:P748S,ORF1a:T1246I,ORF1a:A2249V,ORF1a:K3353R,ORF1b:P314L,ORF1b:S1187I,ORF1b:V2233I,ORF8:R52K,ORF9b:G31E,S:S477N,S:D614G</t>
         </is>
+      </c>
+      <c r="S29">
+        <v>14</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>ORF3a:V256-</t>
+        </is>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>29902</v>
+      </c>
+      <c r="W29">
+        <v>89592</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>3000</v>
+      </c>
+      <c r="Z29">
+        <v>15.85185185185185</v>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB29">
+        <v>728</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>15</v>
+      </c>
+      <c r="AH29">
+        <v>10</v>
+      </c>
+      <c r="AI29">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK29">
+        <v>15</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO29">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -783,8 +4302,130 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>260.0011111111111</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>4341</v>
+      </c>
+      <c r="I30">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C241T,G529T,C584T,C3037T,C4002T,C6781T,A10323G,C13536T,C14408T,C15026T,G17027T,C18747T,G22992A,A23233G,A23403G,C23731T,A23843G,T24754C,G28048A,G28375A,G29425T</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>23834-23840,26158-26161</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1-39,2238-2835,5011-5266,6867-7043,9853-10100,10358-10371,11068-11312,19293-19558,19935-20480,21163-21592,22034-22661,22782-22803,23844-23898,23923-23926,25115-25611,27529-27534,27582-27651,27785-27791,28773-28991,29375-29384,29847-29871</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>N:Q384H,ORF1a:L107F,ORF1a:T1246I,ORF1a:K3353R,ORF1b:P314L,ORF1b:A520V,ORF1b:S1187I,ORF8:R52K,ORF9b:G31E,S:S477N,S:D614G,S:T761A</t>
         </is>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>ORF3a:V256-,S:S758-,S:F759-</t>
+        </is>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>29902</v>
+      </c>
+      <c r="W30">
+        <v>89590</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>3000</v>
+      </c>
+      <c r="Z30">
+        <v>149.6666666666667</v>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB30">
+        <v>4341</v>
+      </c>
+      <c r="AC30">
+        <v>10</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>15</v>
+      </c>
+      <c r="AH30">
+        <v>9</v>
+      </c>
+      <c r="AI30">
+        <v>60</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK30">
+        <v>14</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO30">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -795,8 +4436,135 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>21.77777777777778</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>221</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C241T,G621A,C3037T,C4002T,A5780G,G10097A,A10323G,G11417T,C12623T,C13536T,C14408T,C17444T,C18747T,G19072T,A23403G,C23731T,G27987T,G28373T,C28606T,G28881A,G28882A,G28883C,C28905A,G29425T</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>26158-26161</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1-39,21437-21592,22468-22474,22478-22482,22519-22523,29857-29871</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>N:G34W,N:R203K,N:G204R,N:A211D,N:Q384H,ORF1a:R119H,ORF1a:T1246I,ORF1a:I1839V,ORF1a:G3278S,ORF1a:K3353R,ORF1a:V3718F,ORF1a:P4120S,ORF1b:P314L,ORF1b:A1326V,ORF1b:D1869Y,ORF8:V32L,S:D614G</t>
         </is>
+      </c>
+      <c r="S31">
+        <v>17</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>ORF3a:V256-</t>
+        </is>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>29902</v>
+      </c>
+      <c r="W31">
+        <v>89600</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>3000</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB31">
+        <v>221</v>
+      </c>
+      <c r="AC31">
+        <v>10</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>15</v>
+      </c>
+      <c r="AH31">
+        <v>7</v>
+      </c>
+      <c r="AI31">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK31">
+        <v>12</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO31">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -807,8 +4575,135 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>87.7511111111111</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>516</v>
+      </c>
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C241T,G1172A,C1926T,C2485T,C2509T,C3037T,C4002T,C6781T,G10097A,A10323G,C13536T,A14271G,C14408T,G17027T,A18146T,C18747T,G20164A,G22992A,A23233G,G23236T,A23403G,C23731T,C24912T,C25824T,T27422C,G28048A,C28432T,G28881A,G28882A,G28883C,G29425T</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>26158-26161</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1-7,2585-2833,21163-21235,21426-21592,23076-23079,23122-23128,29856-29871</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>N:R203K,N:G204R,N:Q384H,ORF1a:V303I,ORF1a:T554I,ORF1a:T1246I,ORF1a:G3278S,ORF1a:K3353R,ORF1b:P314L,ORF1b:S1187I,ORF1b:E1560V,ORF1b:V2233I,ORF7a:I10T,ORF8:R52K,ORF9b:S50L,S:S477N,S:K558N,S:D614G,S:T1117I</t>
         </is>
+      </c>
+      <c r="S32">
+        <v>19</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>ORF3a:V256-</t>
+        </is>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>29902</v>
+      </c>
+      <c r="W32">
+        <v>89572</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>3000</v>
+      </c>
+      <c r="Z32">
+        <v>8</v>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB32">
+        <v>516</v>
+      </c>
+      <c r="AC32">
+        <v>10</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>15</v>
+      </c>
+      <c r="AH32">
+        <v>14</v>
+      </c>
+      <c r="AI32">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK32">
+        <v>19</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO32">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -819,8 +4714,135 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>141.9871604938272</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2508</v>
+      </c>
+      <c r="I33">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C241T,C1059T,T1877G,T2359C,C2509T,C3037T,C14408T,T14868C,G17027T,C18747T,C19089T,C20543T,A21801C,G22813T,G22992A,A23233G,A23403G,C23731T,G25563T,C25904T,G28881A,G28882A,G28883C,G29425T,A29594G</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>26158-26161</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1-39,1958-2211,2578-2835,3829-4050,4651-4657,6078-6133,6864,6876-6880,6942-7045,8656-8894,9843-10088,11306-11315,20202-20339,21162-21593,22428-22539,23050-23130,25115-25305,25667-25671,28459-28475,28904-28994,29852-29871</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>N:R203K,N:G204R,N:Q384H,ORF1a:T265I,ORF1a:S538A,ORF1b:P314L,ORF1b:S1187I,ORF1b:S2359F,ORF3a:Q57H,ORF3a:S171L,S:D80A,S:K417N,S:S477N,S:D614G</t>
         </is>
+      </c>
+      <c r="S33">
+        <v>14</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>ORF3a:V256-</t>
+        </is>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>29902</v>
+      </c>
+      <c r="W33">
+        <v>89596</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>3000</v>
+      </c>
+      <c r="Z33">
+        <v>81.77777777777777</v>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB33">
+        <v>2508</v>
+      </c>
+      <c r="AC33">
+        <v>10</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>15</v>
+      </c>
+      <c r="AH33">
+        <v>13</v>
+      </c>
+      <c r="AI33">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK33">
+        <v>18</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO33">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -831,8 +4853,135 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>295</v>
+      </c>
+      <c r="I34">
+        <v>24</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,G5230T,C10207T,A10323G,C14408T,C21614T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25782T,C25904T,C26456T,C28253T,C28310T,C28887T</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1-40,21434-21594,22433-22435,22479-22524,29855-29904</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T,USCDC_N1_P:C28310T</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t>E:P71L,N:P13S,N:T205I,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S34">
+        <v>18</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>29902</v>
+      </c>
+      <c r="W34">
+        <v>89551</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>3000</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB34">
+        <v>295</v>
+      </c>
+      <c r="AC34">
+        <v>10</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>15</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK34">
+        <v>6</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO34">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -843,8 +4992,135 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>7.111111111111112</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>253</v>
+      </c>
+      <c r="I35">
+        <v>25</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,C3037T,G5230T,C9142T,A10323G,C14408T,C19524T,C20148T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,A23416T,C23664T,G25563T,C25820T,C25904T,C26456T,C28185T,C28253T,C28887T</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1-39,21427-21592,29854-29904</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:A143V,ORF3a:S171L,ORF8:L98F,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S35">
+        <v>18</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>29902</v>
+      </c>
+      <c r="W35">
+        <v>89547</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>3000</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB35">
+        <v>253</v>
+      </c>
+      <c r="AC35">
+        <v>10</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>15</v>
+      </c>
+      <c r="AH35">
+        <v>4</v>
+      </c>
+      <c r="AI35">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK35">
+        <v>9</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO35">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -855,8 +5131,130 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>117.1465569272977</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>18</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>3172</v>
+      </c>
+      <c r="I36">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,C3037T,G5230T,C9142T,A10323G,C14408T,C16163T,C20148T,A21801C,A22206G,G22813T,A23403G,A23416T,C23664T,C25820T,C25904T,C26456T,C28185T,C28253T</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1-34,2256-2698,2819-2833,6867-7043,9853-10084,19293-19310,19408-19558,19935-20078,20157-20480,21163-21593,22330-22527,22896-23129,25115-25609,28756-28993,29852-29904</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF1b:T899I,ORF3a:A143V,ORF3a:S171L,ORF8:L98F,S:D80A,S:D215G,S:L242H,S:K417N,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S36">
+        <v>15</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="V36">
+        <v>29902</v>
+      </c>
+      <c r="W36">
+        <v>89563</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>3000</v>
+      </c>
+      <c r="Z36">
+        <v>106.3703703703704</v>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB36">
+        <v>3172</v>
+      </c>
+      <c r="AC36">
+        <v>10</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>15</v>
+      </c>
+      <c r="AH36">
+        <v>3</v>
+      </c>
+      <c r="AI36">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK36">
+        <v>8</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO36">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -867,8 +5265,140 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>69.44444444444446</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>198</v>
+      </c>
+      <c r="I37">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,G1068A,A2692T,C3037T,G5230T,T6756C,A10323G,C14408T,A21487G,A21488T,G21490T,T21492C,A21495G,C21496G,T21497G,T21498G,A21499T,C21614T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C26645T,C28253T,C28887T</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1-39,21500-21592,23110-23129,29855-29904</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:G268E,ORF1a:K1655N,ORF1a:V2164A,ORF1a:K3353R,ORF1b:P314L,ORF1b:K2674V,ORF1b:G2675C,ORF1b:L2677G,ORF1b:I2678L,ORF3a:Q57H,ORF3a:S171L,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S37">
+        <v>23</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>29902</v>
+      </c>
+      <c r="W37">
+        <v>89515</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>3000</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB37">
+        <v>198</v>
+      </c>
+      <c r="AC37">
+        <v>10</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>15</v>
+      </c>
+      <c r="AH37">
+        <v>10</v>
+      </c>
+      <c r="AI37">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK37">
+        <v>15</v>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>21487-21499:9</t>
+        </is>
+      </c>
+      <c r="AM37">
+        <v>50</v>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AO37">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -879,8 +5409,135 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>173</v>
+      </c>
+      <c r="I38">
+        <v>24</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,C5100T,G5230T,A10323G,C13620T,C14408T,C19524T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C28253T,C28887T,G29645T</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1-13,21449-21593,29856-29872,29903</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:S1612L,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S38">
+        <v>17</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+      <c r="V38">
+        <v>29902</v>
+      </c>
+      <c r="W38">
+        <v>89551</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>3000</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB38">
+        <v>173</v>
+      </c>
+      <c r="AC38">
+        <v>10</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>15</v>
+      </c>
+      <c r="AH38">
+        <v>3</v>
+      </c>
+      <c r="AI38">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK38">
+        <v>8</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO38">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -891,8 +5548,135 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>18</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>206</v>
+      </c>
+      <c r="I39">
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,C4543T,G5230T,A10323G,C14408T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C28253T,C28887T</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1-39,6861-6868,21447-21594,29857-29871</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S39">
+        <v>16</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+      <c r="V39">
+        <v>29902</v>
+      </c>
+      <c r="W39">
+        <v>89563</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>3000</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB39">
+        <v>206</v>
+      </c>
+      <c r="AC39">
+        <v>10</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>15</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK39">
+        <v>5</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO39">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -903,8 +5687,135 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>1.840342935528121</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>619</v>
+      </c>
+      <c r="I40">
+        <v>23</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,G1068A,A2692T,C3037T,G5230T,A10323G,C14408T,C21614T,A21801C,A22206G,G22813T,A23403G,C23664T,C24374T,G25563T,C25904T,C26456T,C26645T,T28110C,C28253T,C28887T</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1-39,6861-6868,10040-10083,20299-20346,21436-21593,22353-22524,22993-23129,29852-29871,29903</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:G268E,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,ORF8:Y73H,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:D614G,S:A701V,S:L938F</t>
         </is>
+      </c>
+      <c r="S40">
+        <v>18</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>29902</v>
+      </c>
+      <c r="W40">
+        <v>89555</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>3000</v>
+      </c>
+      <c r="Z40">
+        <v>11.81481481481481</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB40">
+        <v>619</v>
+      </c>
+      <c r="AC40">
+        <v>10</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>15</v>
+      </c>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK40">
+        <v>6</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -915,8 +5826,135 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>162</v>
+      </c>
+      <c r="I41">
+        <v>24</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,G1068A,A2692T,C3037T,G5230T,T6756C,A10323G,C14408T,C21614T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C26645T,C28253T,C28887T</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1-39,21581-21593,23067-23130,29855-29904</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:G268E,ORF1a:K1655N,ORF1a:V2164A,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S41">
+        <v>19</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>29902</v>
+      </c>
+      <c r="W41">
+        <v>89551</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>3000</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB41">
+        <v>162</v>
+      </c>
+      <c r="AC41">
+        <v>10</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>15</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK41">
+        <v>6</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO41">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -927,8 +5965,135 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>7.111111111111112</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>21</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>278</v>
+      </c>
+      <c r="I42">
+        <v>26</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,G3328T,G5230T,A10323G,G11083T,C14408T,C21614T,A21801C,A21944G,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,G25784T,C25904T,C26456T,C27494T,C28253T,C28887T</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>11288-11297,21599-21602,22287-22296</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1-38,21411-21592,23118-23128,29854-29904</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:Q1021H,ORF1a:K1655N,ORF1a:K3353R,ORF1a:L3606F,ORF1b:P314L,ORF3a:Q57H,ORF3a:W131L,ORF3a:S171L,ORF7a:P34L,S:L18F,S:D80A,S:I128V,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S42">
+        <v>22</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:S13-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U42">
+        <v>7</v>
+      </c>
+      <c r="V42">
+        <v>29902</v>
+      </c>
+      <c r="W42">
+        <v>89530</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>3000</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB42">
+        <v>278</v>
+      </c>
+      <c r="AC42">
+        <v>10</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>15</v>
+      </c>
+      <c r="AH42">
+        <v>4</v>
+      </c>
+      <c r="AI42">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK42">
+        <v>9</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO42">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -939,8 +6104,130 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>138.5106310013718</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>18</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>3395</v>
+      </c>
+      <c r="I43">
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>G116T,G174T,C241T,C1059T,C3037T,G5036T,G5230T,A10323G,C14408T,T19911A,C21614T,A21801C,A22206G,G22813T,A23403G,C23664T,G25563T,G25784T,T25938C,C26456T,C28253T</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>11306-11315,22287-22296</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1-39,1958-2210,2578-2835,3841-3916,4574-4657,6861-7045,8656-8894,9860-10090,11049-11306,21162-21607,22034-22045,22310-22524,23030-23130,25097-25342,25605-25728,25736-25742,27713-27792,28459-28994,29848-29871</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:G1591*,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:W131L,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S43">
+        <v>15</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+      <c r="V43">
+        <v>29902</v>
+      </c>
+      <c r="W43">
+        <v>89563</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>3000</v>
+      </c>
+      <c r="Z43">
+        <v>114.6296296296296</v>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB43">
+        <v>3395</v>
+      </c>
+      <c r="AC43">
+        <v>10</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>15</v>
+      </c>
+      <c r="AH43">
+        <v>4</v>
+      </c>
+      <c r="AI43">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK43">
+        <v>9</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO43">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -951,8 +6238,130 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>71.46935528120713</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>18</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>2554</v>
+      </c>
+      <c r="I44">
+        <v>18</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>G116T,G174T,C241T,C1059T,C3037T,A10323G,C14408T,T19911A,A21801C,A22206G,G22813T,A23403G,C23664T,G25563T,C25904T,T25938C,C26456T,C28253T</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1-39,1958-2203,2578-2834,4444-4657,6861-6885,7028-7043,8656-8883,9859-10084,21163-21592,22333-22524,23050-23129,28459-28999,29799-29871</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:D80A,S:D215G,S:L242H,S:K417N,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S44">
+        <v>12</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+      <c r="V44">
+        <v>29902</v>
+      </c>
+      <c r="W44">
+        <v>89575</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>3000</v>
+      </c>
+      <c r="Z44">
+        <v>83.48148148148148</v>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB44">
+        <v>2554</v>
+      </c>
+      <c r="AC44">
+        <v>10</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>15</v>
+      </c>
+      <c r="AH44">
+        <v>2</v>
+      </c>
+      <c r="AI44">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK44">
+        <v>7</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO44">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -963,8 +6372,130 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>50.95968449931414</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2219</v>
+      </c>
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>G116T,G174T,C241T,C1059T,T2839A,C3037T,G5230T,A10323G,C14408T,T19911A,A21801C,A22206G,G22813T,G23012A,A23403G,C23664T,G25563T,T25938C,C26456T,C28253T</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>22287-22296</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1-39,2578-2833,4614-4657,5287-5345,8656-8824,8876-8880,9853-10086,20175-20181,21162-21608,22324-22524,23017-23130,25659-25740,28459-29001,29839-29871</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S45">
+        <v>13</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+      <c r="V45">
+        <v>29902</v>
+      </c>
+      <c r="W45">
+        <v>89598</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>3000</v>
+      </c>
+      <c r="Z45">
+        <v>71.07407407407408</v>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB45">
+        <v>2219</v>
+      </c>
+      <c r="AC45">
+        <v>10</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>15</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK45">
+        <v>6</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO45">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -975,8 +6506,135 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>1655.521001371742</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>11191</v>
+      </c>
+      <c r="I46">
+        <v>22</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>G174T,C241T,G546T,T550C,C591T,C3037T,A6863C,G8371T,A8651T,T8652G,C9371G,A10323G,C14408T,C16393A,C18171T,A21801C,A23403G,C23664T,G25563T,C26339A,C26356G,C26456T</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>23122-23131</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1-39,718-972,1058-1191,1217-1250,1956-2219,2524-2838,3818-5880,6268-6291,6298-6300,6437-6474,6866-7058,8653-8894,9265-9278,9838-10106,10429-10700,11019-11315,11682-11870,12250-12432,12795-13013,13380-13609,13979-14216,14596-14893,15881-16129,18974-19240,19580-20481,21158-21609,22016-23121,24429-24704,25111-25308,25620-25911,26908-27152,27520-27799,28154-28255,28456-28999,29371-29870</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Charité_E_P:C26339A;C26356G</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>E:A32D,E:R38G,E:P71L,ORF1a:G94V,ORF1a:P109L,ORF1a:K2200Q,ORF1a:Q2702H,ORF1a:M2796W,ORF1a:Q3036E,ORF1a:K3353R,ORF1b:P314L,ORF1b:P976T,ORF3a:Q57H,S:D80A,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S46">
+        <v>16</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>S:P521-,S:A522-,S:T523-</t>
+        </is>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>29902</v>
+      </c>
+      <c r="W46">
+        <v>89590</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>3000</v>
+      </c>
+      <c r="Z46">
+        <v>403.3703703703704</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB46">
+        <v>11191</v>
+      </c>
+      <c r="AC46">
+        <v>10</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>15</v>
+      </c>
+      <c r="AH46">
+        <v>8</v>
+      </c>
+      <c r="AI46">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK46">
+        <v>13</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO46">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -987,8 +6645,135 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>1.777791495198903</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>301</v>
+      </c>
+      <c r="I47">
+        <v>26</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,G4975T,G5230T,A10323G,A11462G,C14408T,C21614T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,G25563T,C25904T,C26456T,C26985T,C27131T,C28253T,C28887T,C29353T</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1-39,21170-21175,21525-21593,22418-22489,23096-23123,23125-23128,29729-29771,29857-29904</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
           <t>E:P71L,M:H155Y,N:T205I,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1a:M3733V,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S47">
+        <v>19</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U47">
+        <v>6</v>
+      </c>
+      <c r="V47">
+        <v>29902</v>
+      </c>
+      <c r="W47">
+        <v>89543</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>3000</v>
+      </c>
+      <c r="Z47">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB47">
+        <v>301</v>
+      </c>
+      <c r="AC47">
+        <v>10</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>15</v>
+      </c>
+      <c r="AH47">
+        <v>2</v>
+      </c>
+      <c r="AI47">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK47">
+        <v>7</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO47">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -999,8 +6784,135 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>352.7067901234568</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3165</v>
+      </c>
+      <c r="I48">
+        <v>40</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>G116T,G174T,C241T,C1059T,C3037T,G4255A,G5230T,A10323G,C14408T,T19911A,C21614T,A21801C,A22206G,G22813T,A23403G,C23664T,C23731T,G25563T,T25938C,C26456T,C28253T,C29696A,T29698A,T29699A,G29701A,G29702A,G29703A,G29705A,G29706A,C29708A,T29709A,T29710A,G29711A,G29715A,G29717A,C29718A,C29719A,C29721A,C29722A,C29724A</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>11306-11315,22287-22296</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1-39,1958-2203,2580-2833,5315-5570,8657-8675,9859-10085,11064-11306,19293-19455,19935-20197,21163-21595,22034-22037,22312-22524,22897-23129,25895-25903,28459-28994,29652-29694</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S48">
+        <v>13</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U48">
+        <v>6</v>
+      </c>
+      <c r="V48">
+        <v>29724</v>
+      </c>
+      <c r="W48">
+        <v>88953</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>3000</v>
+      </c>
+      <c r="Z48">
+        <v>106.1111111111111</v>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB48">
+        <v>3165</v>
+      </c>
+      <c r="AC48">
+        <v>10</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>15</v>
+      </c>
+      <c r="AH48">
+        <v>22</v>
+      </c>
+      <c r="AI48">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AK48">
+        <v>27</v>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>29696:20</t>
+        </is>
+      </c>
+      <c r="AM48">
+        <v>50</v>
+      </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AO48">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1011,8 +6923,120 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>954.1742112482855</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>8570</v>
+      </c>
+      <c r="I49">
+        <v>23</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>G174T,C241T,T550C,C1059T,C1281A,C3037T,C5100T,G5206T,G5230T,G7272A,A10323G,C10433A,T14040C,C14408T,C17999T,C18029A,A21801C,G22813T,A23403G,T23781A,G25563T,C26456T,C28253T</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>1-39,1955-2835,3818-4088,4407-4839,4913-4945,5298-5570,6241-6475,6864-7116,7278-7323,8656-8894,9266-9536,9757-10090,11057-11870,13379-13609,15236-15489,16504-16754,17754-17977,19931-20213,20884-21606,22027-22527,22896-23129,23517-23661,24425-24705,25098-25356,25630-25909,26908-27147,28456-28999,29845-29870</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:A339D,ORF1a:S1612L,ORF1a:M1647I,ORF1a:K1655N,ORF1a:R2336K,ORF1a:K3353R,ORF1a:Q3390K,ORF1b:P314L,ORF1b:T1511I,ORF1b:A1521E,ORF3a:Q57H,S:D80A,S:K417N,S:D614G,S:M740K</t>
         </is>
+      </c>
+      <c r="S49">
+        <v>17</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>29902</v>
+      </c>
+      <c r="W49">
+        <v>89617</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>3000</v>
+      </c>
+      <c r="Z49">
+        <v>306.2962962962963</v>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB49">
+        <v>8570</v>
+      </c>
+      <c r="AC49">
+        <v>10</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>15</v>
+      </c>
+      <c r="AH49">
+        <v>6</v>
+      </c>
+      <c r="AI49">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK49">
+        <v>11</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO49">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1023,8 +7047,120 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>20A</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>108.3150754458162</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>2713</v>
+      </c>
+      <c r="I50">
+        <v>18</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1962A,G2001A,C3037T,C3241T,G6421T,C7279T,A10323G,C14408T,C17850T,G18067T,A21801C,G22813T,A23403G,C23664T,G25563T,C29721T</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>1-39,2187-2189,2194-2197,2578-2833,4434-4710,8656-8894,9851-10085,19930-20196,21163-21665,23050-23129,25115-25120,25661-25911,28459-28995,29842-29871</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>ORF1a:A566D,ORF1a:R579K,ORF1a:K3353R,ORF1b:P314L,ORF1b:D1534Y,ORF3a:Q57H,S:D80A,S:K417N,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>29902</v>
+      </c>
+      <c r="W50">
+        <v>89637</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>3000</v>
+      </c>
+      <c r="Z50">
+        <v>89.37037037037037</v>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AB50">
+        <v>2713</v>
+      </c>
+      <c r="AC50">
+        <v>10</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>15</v>
+      </c>
+      <c r="AH50">
+        <v>8</v>
+      </c>
+      <c r="AI50">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK50">
+        <v>13</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO50">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1035,8 +7171,120 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>741.0008367626887</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>7469</v>
+      </c>
+      <c r="I51">
+        <v>24</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>T550C,C784A,C1059T,C3037T,C6843A,G7850T,A7906G,C8311A,A10323G,G12647T,C14408T,C14491A,C17999T,C20384G,A21801C,A22811G,G22813T,A23403G,C23664T,G25563T,C25904T,C26013A,C26039A,C28253T</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>1-329,1955-2833,4141-4672,4845-4849,4986-5291,6246-6474,6861-6866,6867-7043,7409-7627,8656-8894,9843-10084,10449-10675,11062-11315,12795-13013,13382-13607,15553-15834,16508-16756,19935-20198,21163-21665,22034-22527,23050-23129,24430-24703,26306-26529,26908-27147,27528-27762,28459-29001,29852-29870</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:S2193Y,ORF1a:A2529S,ORF1a:N2682K,ORF1a:K3353R,ORF1a:V4128L,ORF1b:P314L,ORF1b:L342I,ORF1b:T1511I,ORF1b:A2306G,ORF3a:Q57H,ORF3a:S171L,ORF3a:F207L,ORF3a:S216*,S:D80A,S:K417D,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S51">
+        <v>18</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>29902</v>
+      </c>
+      <c r="W51">
+        <v>89613</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>3000</v>
+      </c>
+      <c r="Z51">
+        <v>265.5185185185185</v>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB51">
+        <v>7469</v>
+      </c>
+      <c r="AC51">
+        <v>10</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>15</v>
+      </c>
+      <c r="AH51">
+        <v>9</v>
+      </c>
+      <c r="AI51">
+        <v>60</v>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK51">
+        <v>14</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO51">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1047,8 +7295,125 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>1654.923470507545</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>11189</v>
+      </c>
+      <c r="I52">
+        <v>21</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C1059T,C3037T,G3107C,C9012A,C9798G,A10323G,G10986T,C11812A,C12723A,C12729A,C14408T,C17999T,A19068T,C19524T,A21801C,G22813T,A23403G,G23505T,C23664T,G25015T,A27551C</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>1-331,1959-2839,3205-3471,4441-5880,6237-6474,6868-7045,7404-7636,8012-8257,8655-8894,9266-9504,9835-10091,10438-10791,10795-10801,10810-10813,11004-11315,12250-12424,13385-13607,13979-14213,17756-17974,19595-20480,20885-21665,22032-22524,22897-23129,24430-24704,25336-25908,26309-26528,26908-27147,27528-27541,27726-29000,29363-29498,29855-29869</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Pasteur_IP2_P:C12723A;C12729A</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:E948Q,ORF1a:A2916D,ORF1a:A3178G,ORF1a:K3353R,ORF1a:R3574I,ORF1a:S4153Y,ORF1a:A4155D,ORF1b:P314L,ORF1b:T1511I,ORF1b:Q1867H,ORF7a:K53T,S:D80A,S:K417N,S:D614G,S:G648V,S:A701V,S:E1151D</t>
         </is>
+      </c>
+      <c r="S52">
+        <v>18</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>29902</v>
+      </c>
+      <c r="W52">
+        <v>89625</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>3000</v>
+      </c>
+      <c r="Z52">
+        <v>403.2962962962963</v>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB52">
+        <v>11189</v>
+      </c>
+      <c r="AC52">
+        <v>10</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>15</v>
+      </c>
+      <c r="AH52">
+        <v>8</v>
+      </c>
+      <c r="AI52">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK52">
+        <v>13</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO52">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1059,8 +7424,135 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>7.769012345679013</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>19</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>519</v>
+      </c>
+      <c r="I53">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,A2692T,C3037T,G5230T,C5884T,C6726T,A10323G,C10537T,C14408T,C21614T,A21801C,A22206G,G22813T,G23012A,A23063T,A23403G,C23664T,C25513G,G25563T,G25855A,C25904T,C26456T,C28253T,C28887T,T29859C</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296,29854</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1-5,5953-5978,6869-7040,21449-21592,22360-22524,23102,29860-29871</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:K1655N,ORF1a:T2154I,ORF1a:K3353R,ORF1b:P314L,ORF3a:L41V,ORF3a:Q57H,ORF3a:D155N,ORF3a:S171L,S:L18F,S:D80A,S:D215G,S:L242H,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S53">
+        <v>20</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U53">
+        <v>6</v>
+      </c>
+      <c r="V53">
+        <v>29902</v>
+      </c>
+      <c r="W53">
+        <v>89532</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>3000</v>
+      </c>
+      <c r="Z53">
+        <v>8.111111111111111</v>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB53">
+        <v>519</v>
+      </c>
+      <c r="AC53">
+        <v>10</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>15</v>
+      </c>
+      <c r="AH53">
+        <v>4</v>
+      </c>
+      <c r="AI53">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK53">
+        <v>9</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO53">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1071,8 +7563,135 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>11.19244170096022</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>377</v>
+      </c>
+      <c r="I54">
+        <v>26</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C1059T,C1912T,C3037T,G5230T,G7675T,C9142T,A10323G,T10744C,C14408T,C19524T,A21801C,A22206G,G22299T,G22813T,G23012A,A23063T,A23403G,C23664T,G24872T,G25563T,C25904T,C26456T,C28253T,C28887T</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>11288-11297,22287-22296</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>1-11,21494-21592,27520-27741,29856-29904</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:C28887T</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
           <t>E:P71L,N:T205I,ORF1a:T265I,ORF1a:K1655N,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF3a:S171L,S:D80A,S:D215G,S:L242H,S:R246I,S:K417N,S:E484K,S:N501Y,S:D614G,S:A701V,S:V1104L</t>
         </is>
+      </c>
+      <c r="S54">
+        <v>18</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U54">
+        <v>6</v>
+      </c>
+      <c r="V54">
+        <v>29902</v>
+      </c>
+      <c r="W54">
+        <v>89543</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>3000</v>
+      </c>
+      <c r="Z54">
+        <v>2.851851851851852</v>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB54">
+        <v>377</v>
+      </c>
+      <c r="AC54">
+        <v>10</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>15</v>
+      </c>
+      <c r="AH54">
+        <v>5</v>
+      </c>
+      <c r="AI54">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK54">
+        <v>10</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO54">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1083,8 +7702,140 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>1288.706790123457</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>8235</v>
+      </c>
+      <c r="I55">
+        <v>41</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>G174T,C241T,T550C,C1059T,C1263T,C3037T,G5230T,A10323G,A12377T,G12378A,C14408T,C16028A,C17999T,C21614T,A21801C,A22206G,A23403G,C23731T,C25685A,C26456T,T27856C,C28253T,C28310T,G29751A,T29753A,C29754A,G29755A,G29757A,T29758A,G29759A,T29760A,C29762A,G29764A,T29765A,G29766A,C29769A,G29777A,G29778A,G29779A,G29781A,T29791A</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>11306-11315,22287-22296,29772-29776,29783-29790,29793-29796</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1-28,724-957,1331-1580,1958-2199,2578-2835,3848,3978-4065,4439-4657,5263,5275,5278-5281,5288-5291,5292-5475,6861-7043,8656-8897,9849-10085,10448-11306,13382-13607,13979-14213,14602-14874,16504-16754,19580-19957,20040-20480,20884-21597,22034-22037,22324-23129,23517-23651,23839-24085,24456-24703,25115-25283,25363-25662,27528-27717,28459-28994,29672-29749</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>USCDC_N1_P:C28310T</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
           <t>E:P71L,N:P13S,ORF1a:T265I,ORF1a:T333M,ORF1a:K1655N,ORF1a:K3353R,ORF1a:R4038*,ORF1b:P314L,ORF1b:A854D,ORF1b:T1511I,ORF3a:A98D,ORF7b:L34P,S:L18F,S:D80A,S:D215G,S:L242H,S:D614G</t>
         </is>
+      </c>
+      <c r="S55">
+        <v>17</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,S:A243-,S:L244-,S:H245-</t>
+        </is>
+      </c>
+      <c r="U55">
+        <v>6</v>
+      </c>
+      <c r="V55">
+        <v>29796</v>
+      </c>
+      <c r="W55">
+        <v>89111</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>3000</v>
+      </c>
+      <c r="Z55">
+        <v>293.8888888888889</v>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB55">
+        <v>8235</v>
+      </c>
+      <c r="AC55">
+        <v>10</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>15</v>
+      </c>
+      <c r="AH55">
+        <v>30</v>
+      </c>
+      <c r="AI55">
+        <v>200</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AK55">
+        <v>35</v>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>29751:20</t>
+        </is>
+      </c>
+      <c r="AM55">
+        <v>50</v>
+      </c>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AO55">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -1095,8 +7846,130 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>1321.780864197531</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>10035</v>
+      </c>
+      <c r="I56">
+        <v>21</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>G174T,C241T,T550C,C1059T,G2355T,G2408T,A2692T,C4423A,C7764A,A10323G,C14408T,C17461A,G17669T,C17999T,G21641T,A21801C,A23403G,C23664T,G25563T,C25904T,C26456T</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>11306-11315,23120-23129</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>1-39,1958-2234,2583-2624,2822-3474,4428-4658,4992-5907,6244-6474,8655-8894,9850-10099,11056-11306,12796-13011,13380-13607,13979-14213,14596-14874,15238-15487,16503-16754,17147-17389,17753-17974,19914-20480,20884-21594,22032-23120,23834-24085,24430-25287,26908-27147,27527-27792,28165-28255,28454-28544,28657-29001,29371-29869</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:G697V,ORF1a:G715*,ORF1a:S2500Y,ORF1a:K3353R,ORF1b:P314L,ORF1b:R1332S,ORF1b:G1401V,ORF1b:T1511I,ORF3a:Q57H,ORF3a:S171L,S:A27S,S:D80A,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S56">
+        <v>16</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,S:A520-,S:P521-,S:A522-</t>
+        </is>
+      </c>
+      <c r="U56">
+        <v>6</v>
+      </c>
+      <c r="V56">
+        <v>29902</v>
+      </c>
+      <c r="W56">
+        <v>89563</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>3000</v>
+      </c>
+      <c r="Z56">
+        <v>360.5555555555555</v>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB56">
+        <v>10035</v>
+      </c>
+      <c r="AC56">
+        <v>10</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>15</v>
+      </c>
+      <c r="AH56">
+        <v>7</v>
+      </c>
+      <c r="AI56">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK56">
+        <v>12</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO56">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1107,8 +7980,135 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>20D</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>57.08478737997256</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>791</v>
+      </c>
+      <c r="I57">
+        <v>26</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C241T,C2509T,C3037T,C4002T,C6781T,C7011T,C13536T,A14199G,C14408T,G16206T,G17027T,C18747T,G20164A,G22992A,A23233G,A23403G,T23629G,C23731T,C25452T,G26730C,G28048A,G28375A,G28881A,G28882A,G28883C,G29425T</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>3342-3351,26158-26161</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>1-39,2585-2833,6861-6868,9860-9864,10041-10369,21442-21594,29857-29871</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>ChinaCDC_N_F:G28881A;G28882A;G28883C</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
           <t>M:V70L,N:R203K,N:G204R,N:Q384H,ORF1a:N1026S,ORF1a:T1246I,ORF1a:A2249V,ORF1b:P314L,ORF1b:E913D,ORF1b:S1187I,ORF1b:V2233I,ORF8:R52K,ORF9b:G31E,S:S477N,S:D614G,S:S689R</t>
         </is>
+      </c>
+      <c r="S57">
+        <v>16</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>ORF1a:S1027-,ORF1a:F1028-,ORF1a:S1029-,ORF3a:V256-</t>
+        </is>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>29902</v>
+      </c>
+      <c r="W57">
+        <v>89561</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>3000</v>
+      </c>
+      <c r="Z57">
+        <v>18.18518518518519</v>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AB57">
+        <v>791</v>
+      </c>
+      <c r="AC57">
+        <v>10</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>15</v>
+      </c>
+      <c r="AH57">
+        <v>11</v>
+      </c>
+      <c r="AI57">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK57">
+        <v>16</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO57">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1119,8 +8119,120 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>20C</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>312.3045404663924</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>4849</v>
+      </c>
+      <c r="I58">
+        <v>19</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C241T,T550C,C1059T,C3037T,C4170A,C4347A,G8432T,C14408T,C14636A,C14639A,G16968T,C17999T,A21801C,A23403G,C23664T,C24418A,G25563T,G25770T,C29721T</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>1-39,1332-1580,1958-2188,2584-2835,3848-4086,4407-4733,4927-5276,6469-6473,8656-8894,9853-10373,13380-13607,13979-14216,19935-20198,21174-21188,21394-21607,22039-22524,23050-23129,24458-24702,25105-25297,25876-25905,27528,27748-27792,28663-29000,29829-29871</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:P1302H,ORF1a:S1361Y,ORF1a:E2723*,ORF1b:P314L,ORF1b:A390D,ORF1b:A391E,ORF1b:E1167D,ORF1b:T1511I,ORF3a:Q57H,ORF3a:R126S,S:D80A,S:D614G,S:A701V</t>
         </is>
+      </c>
+      <c r="S58">
+        <v>14</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>29902</v>
+      </c>
+      <c r="W58">
+        <v>89633</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>3000</v>
+      </c>
+      <c r="Z58">
+        <v>168.4814814814815</v>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB58">
+        <v>4849</v>
+      </c>
+      <c r="AC58">
+        <v>10</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>15</v>
+      </c>
+      <c r="AH58">
+        <v>8</v>
+      </c>
+      <c r="AI58">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK58">
+        <v>13</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO58">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1131,8 +8243,120 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>1002.877585733882</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>8524</v>
+      </c>
+      <c r="I59">
+        <v>28</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C241T,T550C,G614T,C1059T,C3037T,G6205T,G6476A,G7071T,G7116T,A7450G,G9462T,A10323G,C14408T,G16702T,C17999T,G21641T,A21801C,G22813T,G23210T,A23403G,C23664T,G24914T,C25904T,C28253T,A29297G,A29301G,C29339A,G29587T</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1-39,718-970,1325-1583,1956-2255,2568-2835,4641-4672,4969-5570,5952-6177,6863-6867,6869-7043,7997-8257,8656-8894,9859-10091,11066-11315,11687-11870,13392-13397,13399-13405,13486-13607,15238-15489,17755-17975,19289-20480,21162-21594,22032-22527,22896-23130,23840-24086,24430-24704,25109-25633,26309-26529,27527-27806,28459-29009,29367-29508,29845-29869</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>N:K342E,N:D343G,N:H356N,ORF1a:A117S,ORF1a:T265I,ORF1a:K1980N,ORF1a:V2071I,ORF1a:G2269V,ORF1a:G2284V,ORF1a:R3066M,ORF1a:K3353R,ORF1b:P314L,ORF1b:E1079*,ORF1b:T1511I,ORF3a:S171L,S:A27S,S:D80A,S:K417N,S:G550C,S:D614G,S:A701V,S:D1118Y</t>
         </is>
+      </c>
+      <c r="S59">
+        <v>22</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>29902</v>
+      </c>
+      <c r="W59">
+        <v>89597</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>3000</v>
+      </c>
+      <c r="Z59">
+        <v>304.5925925925926</v>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB59">
+        <v>8524</v>
+      </c>
+      <c r="AC59">
+        <v>10</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>15</v>
+      </c>
+      <c r="AH59">
+        <v>13</v>
+      </c>
+      <c r="AI59">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK59">
+        <v>18</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO59">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1141,6 +8365,11 @@
           <t>K008801</t>
         </is>
       </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>"""Unable to align: too many insertions, deletions, duplications, or ambiguous seed matches"""</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1150,8 +8379,120 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>1644.186680384088</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>11153</v>
+      </c>
+      <c r="I61">
+        <v>22</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C1059T,C1223A,C3037T,A6863C,C7173A,A10323G,G11382T,G12572T,G12637T,C14408T,C16260T,C16265A,C17999T,G20506C,C21614T,A21801C,C21807A,A23403G,C23664T,C23694A,G24415T,C28253T</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>1-39,76-331,1955-2834,3205-3488,3833-4071,4421-4655,5001-5570,6866-7048,7394-8258,8651-8894,9841-10096,11066-11321,12252-12429,12780-13013,13380-13607,14600-14886,15135-15141,15142-15490,18974-19284,19499-19963,20052-20481,21162-21606,22029-23130,23834-24086,25111-25911,26305-26529,26908-27149,27528-27804,28459-29000,29371-29870</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:L320I,ORF1a:K2200Q,ORF1a:S2303Y,ORF1a:K3353R,ORF1a:R3706M,ORF1a:D4103Y,ORF1a:W4124C,ORF1b:P314L,ORF1b:S933*,ORF1b:T1511I,ORF1b:D2347H,S:L18F,S:D80A,S:P82H,S:D614G,S:A701V,S:S711Y</t>
         </is>
+      </c>
+      <c r="S61">
+        <v>18</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>29902</v>
+      </c>
+      <c r="W61">
+        <v>89621</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>3000</v>
+      </c>
+      <c r="Z61">
+        <v>401.962962962963</v>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB61">
+        <v>11153</v>
+      </c>
+      <c r="AC61">
+        <v>10</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>15</v>
+      </c>
+      <c r="AH61">
+        <v>8</v>
+      </c>
+      <c r="AI61">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK61">
+        <v>13</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO61">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1162,8 +8503,130 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>20A</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>1040.391234567901</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>8889</v>
+      </c>
+      <c r="I62">
+        <v>17</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>T550C,C1059T,G3485A,C6401T,A10323G,G10805T,C13965T,G13966A,C14408T,T17650C,C17999T,G19289T,A21801C,G23012A,C23664T,C23731T,C26801A</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>11306-11315</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1-331,1958-2240,2578-3187,3826-4066,4434-4683,4976-5310,5394-5570,6865-7048,8012-8264,8656-8895,9843-10100,10756-10801,10989-11306,11682-11870,12792-13013,13380-13607,19291-19559,19930-20481,20884-21594,22032-22820,23040-23451,23838-24086,24430-24448,25100-25911,26908-27149,27528-27661,28458-29001,29852-29870</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:A1074T,ORF1a:P2046S,ORF1a:K3353R,ORF1a:G3514*,ORF1b:A167T,ORF1b:P314L,ORF1b:F1395L,ORF1b:T1511I,ORF1b:G1941V,S:D80A,S:E484K,S:A701V</t>
         </is>
+      </c>
+      <c r="S62">
+        <v>13</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-</t>
+        </is>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+      <c r="V62">
+        <v>29902</v>
+      </c>
+      <c r="W62">
+        <v>89610</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>3000</v>
+      </c>
+      <c r="Z62">
+        <v>318.1111111111111</v>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB62">
+        <v>8889</v>
+      </c>
+      <c r="AC62">
+        <v>10</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>15</v>
+      </c>
+      <c r="AH62">
+        <v>8</v>
+      </c>
+      <c r="AI62">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK62">
+        <v>13</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO62">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1174,8 +8637,120 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>530.6979561042524</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>6391</v>
+      </c>
+      <c r="I63">
+        <v>23</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>G174T,C241T,C245T,T550C,A1393G,C1513T,C2980A,C3037T,T4064G,G7557T,C8177A,G10140T,A10323G,C14408T,A21801C,G22813T,A23403G,G25563T,C26456T,G28237T,C28253T,C29364A,C29376A</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>1-39,1022-1251,1955-2833,3848-4063,4653-4655,4666-4672,4892,4902-5273,6256-6258,6259-6473,6863-6867,6874-7043,7044,8656-8894,9853-10084,11294-11312,19603-19620,19912-20480,21163-21592,22034-22524,22897-23129,23517-23801,24527-24702,25116-25302,25668-25908,27528-27602,28459-29321,29652-29869</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
           <t>E:P71L,N:P364Q,N:P368H,ORF1a:Y905*,ORF1a:S1267A,ORF1a:R2431I,ORF1a:G3292V,ORF1a:K3353R,ORF1b:P314L,ORF3a:Q57H,ORF8:R115L,S:D80A,S:K417N,S:D614G</t>
         </is>
+      </c>
+      <c r="S63">
+        <v>14</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>29902</v>
+      </c>
+      <c r="W63">
+        <v>89617</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>3000</v>
+      </c>
+      <c r="Z63">
+        <v>225.5925925925926</v>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB63">
+        <v>6391</v>
+      </c>
+      <c r="AC63">
+        <v>10</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>15</v>
+      </c>
+      <c r="AH63">
+        <v>7</v>
+      </c>
+      <c r="AI63">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK63">
+        <v>12</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO63">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1186,8 +8761,130 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>740.5600137174213</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>106</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>7265</v>
+      </c>
+      <c r="I64">
+        <v>27</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>T550C,C1059T,C3037T,G5384T,G6439T,A6866T,A10323G,C12374A,C14408T,C14909A,C14945A,C15752A,C17999T,C18013A,C18115A,G18583T,G21641T,A21801C,G22813T,C24138T,G25563T,G25784T,C25904T,C26456T,G26834T,G27861T,C28253T</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>11209-11315</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>1-331,1958-2189,2583-2833,4417-4657,4986-5296,6867-7058,7387-7627,8656-8894,9266-9489,9850-10091,11064-11209,11692-11870,13380-13607,16504-16754,19595-19934,20049-20480,21162-21609,22032-22524,22897-23811,25172-25177,25185,25187-25201,25273-25290,25304,27527-27804,28459-28994,29371-29869</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
           <t>E:P71L,ORF1a:T265I,ORF1a:A1707S,ORF1a:Q2058H,ORF1a:N2201Y,ORF1a:K3353R,ORF1a:A3648X,ORF1a:L4037I,ORF1b:P314L,ORF1b:A481D,ORF1b:A493D,ORF1b:A762E,ORF1b:T1511I,ORF1b:P1516T,ORF1b:H1550N,ORF1b:V1706L,ORF3a:Q57H,ORF3a:W131L,ORF3a:S171L,ORF7b:D36Y,S:A27S,S:D80A,S:K417N,S:T859I</t>
         </is>
+      </c>
+      <c r="S64">
+        <v>24</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>ORF1a:Y3649-,ORF1a:F3650-,ORF1a:N3651-,ORF1a:M3652-,ORF1a:V3653-,ORF1a:Y3654-,ORF1a:M3655-,ORF1a:P3656-,ORF1a:A3657-,ORF1a:S3658-,ORF1a:W3659-,ORF1a:V3660-,ORF1a:M3661-,ORF1a:R3662-,ORF1a:I3663-,ORF1a:M3664-,ORF1a:T3665-,ORF1a:W3666-,ORF1a:L3667-,ORF1a:D3668-,ORF1a:M3669-,ORF1a:V3670-,ORF1a:D3671-,ORF1a:T3672-,ORF1a:S3673-,ORF1a:L3674-,ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,ORF1a:K3678-,ORF1a:L3679-,ORF1a:K3680-,ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-</t>
+        </is>
+      </c>
+      <c r="U64">
+        <v>35</v>
+      </c>
+      <c r="V64">
+        <v>29902</v>
+      </c>
+      <c r="W64">
+        <v>89279</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>3000</v>
+      </c>
+      <c r="Z64">
+        <v>257.962962962963</v>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB64">
+        <v>7265</v>
+      </c>
+      <c r="AC64">
+        <v>10</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>15</v>
+      </c>
+      <c r="AH64">
+        <v>13</v>
+      </c>
+      <c r="AI64">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK64">
+        <v>18</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO64">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1198,8 +8895,130 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>656.96</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>106</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>6672</v>
+      </c>
+      <c r="I65">
+        <v>33</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>G116T,G174T,C241T,C452A,C494A,T550C,G787T,C1059T,C3037T,A3494G,G4866T,A5794C,G7078T,G7151T,A10323G,T12289C,C14408T,C15277T,C20483G,A21801C,G22813T,A23403G,C23643A,C23664T,C24930A,G25563T,C25904T,T25938C,C26456T,C26641A,C28253T,A28254C,G28541T</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>11209-11315</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>1-39,1958-2226,2578-2835,3848-4067,4666-4674,4959-5303,6863-6867,6869-7048,7404-7950,8656-8894,9860-10085,10448-10675,11066-11209,11694-11870,13387-13607,17147-17375,18341-18603,18975-19217,20220-20479,21163-21665,22032-22524,22897-23128,23836-24086,24430-24472,24664-24704,27520-27792,28751-29497,29855-29869</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
           <t>E:P71L,M:A40D,N:A90S,ORF1a:Q63K,ORF1a:M174I,ORF1a:T265I,ORF1a:K1077E,ORF1a:S1534I,ORF1a:E1843D,ORF1a:L2271F,ORF1a:D2296Y,ORF1a:K3353R,ORF1a:A3648X,ORF1b:P314L,ORF1b:H604Y,ORF1b:S2339C,ORF3a:Q57H,ORF3a:S171L,ORF8:I121L,ORF9b:E86D,S:D80A,S:K417N,S:D614G,S:A694D,S:A701V,S:S1123Y</t>
         </is>
+      </c>
+      <c r="S65">
+        <v>26</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>ORF1a:Y3649-,ORF1a:F3650-,ORF1a:N3651-,ORF1a:M3652-,ORF1a:V3653-,ORF1a:Y3654-,ORF1a:M3655-,ORF1a:P3656-,ORF1a:A3657-,ORF1a:S3658-,ORF1a:W3659-,ORF1a:V3660-,ORF1a:M3661-,ORF1a:R3662-,ORF1a:I3663-,ORF1a:M3664-,ORF1a:T3665-,ORF1a:W3666-,ORF1a:L3667-,ORF1a:D3668-,ORF1a:M3669-,ORF1a:V3670-,ORF1a:D3671-,ORF1a:T3672-,ORF1a:S3673-,ORF1a:L3674-,ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,ORF1a:K3678-,ORF1a:L3679-,ORF1a:K3680-,ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-</t>
+        </is>
+      </c>
+      <c r="U65">
+        <v>35</v>
+      </c>
+      <c r="V65">
+        <v>29902</v>
+      </c>
+      <c r="W65">
+        <v>89255</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>3000</v>
+      </c>
+      <c r="Z65">
+        <v>236</v>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB65">
+        <v>6672</v>
+      </c>
+      <c r="AC65">
+        <v>10</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>15</v>
+      </c>
+      <c r="AH65">
+        <v>15</v>
+      </c>
+      <c r="AI65">
+        <v>100</v>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AK65">
+        <v>20</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO65">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1210,8 +9029,130 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>1448.87573388203</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>106</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>10571</v>
+      </c>
+      <c r="I66">
+        <v>15</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>T550C,C1059T,C3037T,C6354T,G7925A,A10323G,G11648T,C14408T,G14420T,C19662T,A21801C,C23664T,G25563T,C25904T,C28253T</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>11222-11328</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>1-40,77-328,719-980,1324-1580,1958-2204,2578-2833,3840-4070,4434-4657,5001-5281,5608-5878,6868-7647,8004-8256,8655-8894,9843-10091,11066-11221,12250-12424,12796-13011,13385-13607,14587-14874,15238-15488,15882-16124,17146-17389,18974-19559,20185-20481,21162-21666,22032-23449,23838-24086,25115-25305,26309-26468,26908-27147,27528-27791,28459-29500,29853-29865</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:S2030L,ORF1a:A2554T,ORF1a:K3353R,ORF1a:A3688X,ORF1a:G3795C,ORF1b:P314L,ORF1b:G318V,ORF3a:Q57H,ORF3a:S171L,S:D80A,S:A701V</t>
         </is>
+      </c>
+      <c r="S66">
+        <v>12</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>ORF1a:V3653-,ORF1a:Y3654-,ORF1a:M3655-,ORF1a:P3656-,ORF1a:A3657-,ORF1a:S3658-,ORF1a:W3659-,ORF1a:V3660-,ORF1a:M3661-,ORF1a:R3662-,ORF1a:I3663-,ORF1a:M3664-,ORF1a:T3665-,ORF1a:W3666-,ORF1a:L3667-,ORF1a:D3668-,ORF1a:M3669-,ORF1a:V3670-,ORF1a:D3671-,ORF1a:T3672-,ORF1a:S3673-,ORF1a:L3674-,ORF1a:S3675-,ORF1a:G3676-,ORF1a:F3677-,ORF1a:K3678-,ORF1a:L3679-,ORF1a:K3680-,ORF1a:D3681-,ORF1a:C3682-,ORF1a:V3683-,ORF1a:M3684-,ORF1a:Y3685-,ORF1a:A3686-,ORF1a:S3687-</t>
+        </is>
+      </c>
+      <c r="U66">
+        <v>35</v>
+      </c>
+      <c r="V66">
+        <v>29902</v>
+      </c>
+      <c r="W66">
+        <v>89327</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>3000</v>
+      </c>
+      <c r="Z66">
+        <v>380.4074074074074</v>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB66">
+        <v>10571</v>
+      </c>
+      <c r="AC66">
+        <v>10</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>15</v>
+      </c>
+      <c r="AH66">
+        <v>2</v>
+      </c>
+      <c r="AI66">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AK66">
+        <v>7</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO66">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1222,14 +9163,141 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>20H/501Y.V2</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>1186.356598079561</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>9514</v>
+      </c>
+      <c r="I67">
+        <v>22</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>G174T,C241T,T550C,C1059T,C3037T,A10323G,C10386A,G10704T,C14408T,C15154A,G17027T,C17999T,C18041A,A21801C,A22206G,G22813T,T22831C,C23664T,G25563T,G27514T,A27551C,C28000G</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>11302-11312</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>1-39,1330-1580,1958-2188,2584-2835,3843-4068,4424-4657,4993-5435,6261-6474,6868-7627,8012-8257,8655-8894,9843-10090,10446-10688,11051-11302,11694-11870,13380-13607,13979-14213,14611-14874,15233-15487,17146-17389,17757-17974,18975-19223,19588-19932,20202-20480,20885-21592,22266-22524,22897-23449,23842-24086,25115-25290,25668-25909,26309-26529,28162-28254,28459-28999,29371-29495,29857-29869</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
           <t>ORF1a:T265I,ORF1a:K3353R,ORF1a:T3374N,ORF1a:R3480M,ORF1a:L3679X,ORF1b:P314L,ORF1b:H563N,ORF1b:S1187I,ORF1b:T1511I,ORF1b:A1525D,ORF3a:Q57H,ORF7a:E41*,ORF7a:K53T,ORF8:P36R,S:D80A,S:D215G,S:K417N,S:A701V</t>
         </is>
+      </c>
+      <c r="S67">
+        <v>18</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>ORF1a:K3680-,ORF1a:D3681-,ORF1a:C3682-</t>
+        </is>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>29902</v>
+      </c>
+      <c r="W67">
+        <v>89587</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>3000</v>
+      </c>
+      <c r="Z67">
+        <v>341.2592592592592</v>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="AB67">
+        <v>9514</v>
+      </c>
+      <c r="AC67">
+        <v>10</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>15</v>
+      </c>
+      <c r="AH67">
+        <v>7</v>
+      </c>
+      <c r="AI67">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="AK67">
+        <v>12</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AO67">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
           <t>K008806</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>"""Unable to align: too many insertions, deletions, duplications, or ambiguous seed matches"""</t>
         </is>
       </c>
     </row>
